--- a/public/data/soil/soil_table_angola.xlsx
+++ b/public/data/soil/soil_table_angola.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1846</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66409.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.933</v>
+        <v>13.377</v>
       </c>
     </row>
     <row r="3">
@@ -1171,28 +1171,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>2525.1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>66607.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59574.3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.358</v>
+        <v>0.544</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.868</v>
+        <v>24.657</v>
       </c>
       <c r="K3" t="n">
-        <v>39.538</v>
+        <v>40.929</v>
       </c>
     </row>
     <row r="4">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>27133.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>43184.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8.801</v>
+        <v>11.123</v>
       </c>
       <c r="K4" t="n">
-        <v>46.203</v>
+        <v>60.014</v>
       </c>
     </row>
     <row r="5">
@@ -1241,28 +1241,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>128.6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>83020.7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>151914.6</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>12.571</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
-        <v>36.095</v>
+        <v>40.376</v>
       </c>
     </row>
     <row r="6">
@@ -1276,28 +1276,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>33317.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11089.4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>26150.4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>33269.7</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.713</v>
+        <v>15.275</v>
       </c>
       <c r="I6" t="n">
-        <v>3.259</v>
+        <v>3.797</v>
       </c>
       <c r="J6" t="n">
-        <v>12.214</v>
+        <v>11.166</v>
       </c>
       <c r="K6" t="n">
-        <v>12.02</v>
+        <v>10.571</v>
       </c>
     </row>
     <row r="7">
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>738.8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>149471.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.23</v>
+        <v>65.742</v>
       </c>
     </row>
     <row r="8">
@@ -1346,28 +1346,28 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>16201.6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>70933.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>406.6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>7.111</v>
+        <v>2.285</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>55.035</v>
+        <v>66.807</v>
       </c>
       <c r="K8" t="n">
-        <v>0.465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7905.7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>50392.6</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.209</v>
+        <v>4.467</v>
       </c>
       <c r="K9" t="n">
-        <v>26.592</v>
+        <v>28.121</v>
       </c>
     </row>
     <row r="10">
@@ -1416,28 +1416,28 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>3044.7</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>149328.3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22323.9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.117</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>98.578</v>
+        <v>113.254</v>
       </c>
       <c r="K10" t="n">
-        <v>16.05</v>
+        <v>8.927</v>
       </c>
     </row>
     <row r="11">
@@ -1451,28 +1451,28 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82716.8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>32469.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.927</v>
+        <v>51.059</v>
       </c>
       <c r="K11" t="n">
-        <v>17.426</v>
+        <v>14.623</v>
       </c>
     </row>
     <row r="12">
@@ -1486,28 +1486,28 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>8287.6</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63169.9</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>100706.9</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.984</v>
+        <v>0.906</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.848</v>
+        <v>31.576</v>
       </c>
       <c r="K12" t="n">
-        <v>35.45</v>
+        <v>34.265</v>
       </c>
     </row>
     <row r="13">
@@ -1521,28 +1521,28 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>1765.9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>106021</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>85509.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.451</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>99.275</v>
+        <v>107.561</v>
       </c>
       <c r="K13" t="n">
-        <v>83.099</v>
+        <v>76.098</v>
       </c>
     </row>
     <row r="14">
@@ -1556,28 +1556,28 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>6523.7</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>125076</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>57754.2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>4.277</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>106.31</v>
+        <v>121.992</v>
       </c>
       <c r="K14" t="n">
-        <v>45.042</v>
+        <v>38.118</v>
       </c>
     </row>
     <row r="15">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>31075.5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>71188.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>26.637</v>
+        <v>32.755</v>
       </c>
       <c r="K15" t="n">
-        <v>77.655</v>
+        <v>83.639</v>
       </c>
     </row>
     <row r="16">
@@ -1626,25 +1626,25 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>151992.8</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>186346.3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.854</v>
+        <v>64.37</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.68</v>
+        <v>84.724</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1661,25 +1661,25 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>131679.4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>90454.3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.176</v>
+        <v>47.56</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>41.839</v>
+        <v>45.441</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1696,25 +1696,25 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>18839.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>106799.5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9.834</v>
+        <v>4.787</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>67.842</v>
+        <v>68.951</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>34297.6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135929.1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>14.188</v>
+        <v>9.178</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.634</v>
+        <v>69.052</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1766,25 +1766,25 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>188061.9</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>138273</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22.342</v>
+        <v>27.743</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>16.306</v>
+        <v>20.975</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1801,25 +1801,25 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>159472.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>15978.3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23.881</v>
+        <v>36.18</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.359</v>
+        <v>0.634</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1836,25 +1836,25 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>25925.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>68004</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12.044</v>
+        <v>11.932</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.405</v>
+        <v>39.14</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1871,28 +1871,28 @@
         <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>66310.2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>117833</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>94.8</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>72.525</v>
+        <v>38.659</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>120.068</v>
+        <v>145.615</v>
       </c>
       <c r="K23" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1906,25 +1906,25 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>74364.1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>70574.3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>33.904</v>
+        <v>40.676</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.624</v>
+        <v>33.453</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1941,28 +1941,28 @@
         <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>19741.7</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>101.8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.732</v>
+        <v>25.144</v>
       </c>
       <c r="I25" t="n">
-        <v>0.069</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.652</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1976,28 +1976,28 @@
         <v>57</v>
       </c>
       <c r="D26" t="n">
-        <v>20682.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1956.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>31.702</v>
+        <v>42.557</v>
       </c>
       <c r="I26" t="n">
-        <v>1.922</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2011,28 +2011,28 @@
         <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>27823.9</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6033</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8499.8</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>17437.8</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>44.125</v>
+        <v>41.13</v>
       </c>
       <c r="I27" t="n">
-        <v>5.039</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.9</v>
+        <v>24.513</v>
       </c>
       <c r="K27" t="n">
-        <v>10.836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2046,28 +2046,28 @@
         <v>58</v>
       </c>
       <c r="D28" t="n">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10697.2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3699.1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9218.7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.572</v>
+        <v>11.759</v>
       </c>
       <c r="I28" t="n">
-        <v>11.652</v>
+        <v>15.198</v>
       </c>
       <c r="J28" t="n">
-        <v>4.518</v>
+        <v>5.92</v>
       </c>
       <c r="K28" t="n">
-        <v>9.254</v>
+        <v>10.021</v>
       </c>
     </row>
     <row r="29">
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>136.9</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>86655.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11.416</v>
+        <v>12.934</v>
       </c>
     </row>
     <row r="30">
@@ -2122,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1760.9</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>160014</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.039</v>
+        <v>0.065</v>
       </c>
       <c r="K30" t="n">
-        <v>14.031</v>
+        <v>22.092</v>
       </c>
     </row>
     <row r="31">
@@ -2151,28 +2151,28 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>33856.3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>130977.1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17419.8</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4.642</v>
+        <v>5.923</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.733</v>
+        <v>24.232</v>
       </c>
       <c r="K31" t="n">
-        <v>1.932</v>
+        <v>1.077</v>
       </c>
     </row>
     <row r="32">
@@ -2186,28 +2186,28 @@
         <v>63</v>
       </c>
       <c r="D32" t="n">
-        <v>29672.6</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>226749.7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>94646.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.368</v>
+        <v>1.243</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.016</v>
+        <v>19.722</v>
       </c>
       <c r="K32" t="n">
-        <v>4.435</v>
+        <v>5.298</v>
       </c>
     </row>
     <row r="33">
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>477.4</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>91756.4</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>7.056</v>
+        <v>11.224</v>
       </c>
     </row>
     <row r="34">
@@ -2256,28 +2256,28 @@
         <v>65</v>
       </c>
       <c r="D34" t="n">
-        <v>2810</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>87188.4</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>247659.3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.672</v>
+        <v>4.884</v>
       </c>
       <c r="K34" t="n">
-        <v>5.911</v>
+        <v>13.104</v>
       </c>
     </row>
     <row r="35">
@@ -2291,28 +2291,28 @@
         <v>66</v>
       </c>
       <c r="D35" t="n">
-        <v>32832.9</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>178866.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>112494.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10.315</v>
+        <v>14.773</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>63.193</v>
+        <v>84.933</v>
       </c>
       <c r="K35" t="n">
-        <v>29.297</v>
+        <v>31.376</v>
       </c>
     </row>
     <row r="36">
@@ -2326,28 +2326,28 @@
         <v>67</v>
       </c>
       <c r="D36" t="n">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2279.6</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77741.7</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.248</v>
+        <v>2.581</v>
       </c>
     </row>
     <row r="37">
@@ -2361,28 +2361,28 @@
         <v>68</v>
       </c>
       <c r="D37" t="n">
-        <v>91.6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15651.6</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>353492.1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.769</v>
+        <v>0.46</v>
       </c>
       <c r="K37" t="n">
-        <v>15.469</v>
+        <v>19.686</v>
       </c>
     </row>
     <row r="38">
@@ -2396,25 +2396,25 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>91967.4</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8015.1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>32.283</v>
+        <v>34.26</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.809</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2431,25 +2431,25 @@
         <v>71</v>
       </c>
       <c r="D39" t="n">
-        <v>16545.7</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7702.2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.053</v>
+        <v>3.285</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.174</v>
+        <v>0.761</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2466,25 +2466,25 @@
         <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>27617.9</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3121.6</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.837</v>
+        <v>9.108</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.36</v>
+        <v>0.199</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2501,25 +2501,25 @@
         <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>26058.2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5562</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>9.68</v>
+        <v>9.903</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.317</v>
+        <v>1.249</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>81508.7</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>11171.6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>26.402</v>
+        <v>25.218</v>
       </c>
       <c r="K42" t="n">
-        <v>8.549</v>
+        <v>7.693</v>
       </c>
     </row>
     <row r="43">
@@ -2571,28 +2571,28 @@
         <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>1027.9</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>57516.9</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>516.5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.006</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.137</v>
+        <v>50.006</v>
       </c>
       <c r="K43" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2606,25 +2606,25 @@
         <v>76</v>
       </c>
       <c r="D44" t="n">
-        <v>23236</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10067.6</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>13.9</v>
+        <v>17.489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.225</v>
+        <v>0.73</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2641,25 +2641,25 @@
         <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>6599.8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>33755.2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.833</v>
+        <v>1.841</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.714</v>
+        <v>14.553</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2676,25 +2676,25 @@
         <v>78</v>
       </c>
       <c r="D46" t="n">
-        <v>6024.2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>32161.2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.634</v>
+        <v>0.456</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9.439</v>
+        <v>12.966</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2711,25 +2711,25 @@
         <v>79</v>
       </c>
       <c r="D47" t="n">
-        <v>7053.2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>31119.5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.969</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.286</v>
+        <v>4.387</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2746,28 +2746,28 @@
         <v>80</v>
       </c>
       <c r="D48" t="n">
-        <v>5717</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>28123.8</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>611.2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.833</v>
+        <v>2.233</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.154</v>
+        <v>4.038</v>
       </c>
       <c r="K48" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2781,7 +2781,7 @@
         <v>81</v>
       </c>
       <c r="D49" t="n">
-        <v>7125.2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>6.063</v>
+        <v>5.375</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2816,25 +2816,25 @@
         <v>82</v>
       </c>
       <c r="D50" t="n">
-        <v>52210</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>24159.8</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>10.41</v>
+        <v>14.221</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.301</v>
+        <v>2.47</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>84</v>
       </c>
       <c r="D51" t="n">
-        <v>65.3</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>49151.9</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2273.2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>36.915</v>
+        <v>25.991</v>
       </c>
       <c r="K51" t="n">
-        <v>2.571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2886,25 +2886,25 @@
         <v>85</v>
       </c>
       <c r="D52" t="n">
-        <v>13839.3</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>163293.8</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.367</v>
+        <v>4.487</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>110.311</v>
+        <v>118.698</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2921,28 +2921,28 @@
         <v>86</v>
       </c>
       <c r="D53" t="n">
-        <v>53.1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>51909</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>868.9</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>63.576</v>
+        <v>66.88</v>
       </c>
       <c r="K53" t="n">
-        <v>1.803</v>
+        <v>5.152</v>
       </c>
     </row>
     <row r="54">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>86175.9</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>106.228</v>
+        <v>115.053</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2991,28 +2991,28 @@
         <v>88</v>
       </c>
       <c r="D55" t="n">
-        <v>2450.8</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>151793.3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>242.3</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.836</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>67.274</v>
+        <v>72.207</v>
       </c>
       <c r="K55" t="n">
-        <v>0.223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3026,25 +3026,25 @@
         <v>89</v>
       </c>
       <c r="D56" t="n">
-        <v>49980.1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>173239.8</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>13.971</v>
+        <v>12.265</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>52.422</v>
+        <v>55.552</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>13922.8</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>67019.7</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4.638</v>
+        <v>3.368</v>
       </c>
       <c r="K57" t="n">
-        <v>48.741</v>
+        <v>49.188</v>
       </c>
     </row>
     <row r="58">
@@ -3096,25 +3096,25 @@
         <v>91</v>
       </c>
       <c r="D58" t="n">
-        <v>29445.6</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>227827</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>5.472</v>
+        <v>3.422</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>106.917</v>
+        <v>118.932</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3131,28 +3131,28 @@
         <v>92</v>
       </c>
       <c r="D59" t="n">
-        <v>383.2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>57774.9</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>7710.4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.623</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>67.477</v>
+        <v>53.522</v>
       </c>
       <c r="K59" t="n">
-        <v>4.479</v>
+        <v>1.429</v>
       </c>
     </row>
     <row r="60">
@@ -3166,28 +3166,28 @@
         <v>93</v>
       </c>
       <c r="D60" t="n">
-        <v>2095.2</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>124528.5</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>5780.6</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>129.538</v>
+        <v>137.417</v>
       </c>
       <c r="K60" t="n">
-        <v>6.474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>39358.8</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>62594.3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3219,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>8.463</v>
+        <v>12.359</v>
       </c>
       <c r="K61" t="n">
-        <v>61.361</v>
+        <v>58.059</v>
       </c>
     </row>
     <row r="62">
@@ -3236,28 +3236,28 @@
         <v>95</v>
       </c>
       <c r="D62" t="n">
-        <v>7646.6</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>154511.7</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>3486.3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2.084</v>
+        <v>1.468</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>143.996</v>
+        <v>147.38</v>
       </c>
       <c r="K62" t="n">
-        <v>2.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>76.6</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>199751.3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>61.442</v>
+        <v>69.484</v>
       </c>
     </row>
     <row r="64">
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>588.7</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>403038.6</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>236.958</v>
+        <v>258.677</v>
       </c>
     </row>
     <row r="65">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>158799.3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>40.065</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="66">
@@ -3376,28 +3376,28 @@
         <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>214.3</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>32322.9</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>196232.9</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>5.932</v>
+        <v>7.409</v>
       </c>
       <c r="K66" t="n">
-        <v>49.805</v>
+        <v>57.242</v>
       </c>
     </row>
     <row r="67">
@@ -3417,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>865.8</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>180014</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.479</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>117.228</v>
+        <v>104.551</v>
       </c>
     </row>
     <row r="68">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>369092.5</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>268.132</v>
+        <v>269.078</v>
       </c>
     </row>
     <row r="69">
@@ -3481,28 +3481,28 @@
         <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>25260.6</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>238544.8</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>540.4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>10.349</v>
+        <v>13.083</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>170.346</v>
+        <v>176.632</v>
       </c>
       <c r="K69" t="n">
-        <v>0.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3516,28 +3516,28 @@
         <v>105</v>
       </c>
       <c r="D70" t="n">
-        <v>1789.8</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>162579.7</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>38319.6</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.658</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>107.429</v>
+        <v>132.726</v>
       </c>
       <c r="K70" t="n">
-        <v>29.324</v>
+        <v>5.969</v>
       </c>
     </row>
     <row r="71">
@@ -3551,25 +3551,25 @@
         <v>106</v>
       </c>
       <c r="D71" t="n">
-        <v>24738</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>94504.4</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>14.814</v>
+        <v>8.106</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>64.341</v>
+        <v>67.84</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3586,28 +3586,28 @@
         <v>107</v>
       </c>
       <c r="D72" t="n">
-        <v>118.9</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>61943</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>11087.3</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>37.967</v>
+        <v>44.717</v>
       </c>
       <c r="K72" t="n">
-        <v>8.354</v>
+        <v>6.006</v>
       </c>
     </row>
     <row r="73">
@@ -3621,28 +3621,28 @@
         <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>910.1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>137226.3</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>15567.7</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.584</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>117.844</v>
+        <v>118.261</v>
       </c>
       <c r="K73" t="n">
-        <v>1.266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3656,28 +3656,28 @@
         <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>12463.7</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>103552.5</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>5.357</v>
+        <v>3.018</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>72.038</v>
+        <v>75.433</v>
       </c>
       <c r="K74" t="n">
-        <v>0.291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3691,28 +3691,28 @@
         <v>109</v>
       </c>
       <c r="D75" t="n">
-        <v>1148.4</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>64780.3</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>43642.2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>29.238</v>
+        <v>34.812</v>
       </c>
       <c r="K75" t="n">
-        <v>21.354</v>
+        <v>6.397</v>
       </c>
     </row>
     <row r="76">
@@ -3726,25 +3726,25 @@
         <v>110</v>
       </c>
       <c r="D76" t="n">
-        <v>20250.3</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>99450.6</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>11.292</v>
+        <v>8.888</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>67</v>
+        <v>70.918</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3761,28 +3761,28 @@
         <v>111</v>
       </c>
       <c r="D77" t="n">
-        <v>23721</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>151913.1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>8.438</v>
+        <v>7.77</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>66.257</v>
+        <v>78.363</v>
       </c>
       <c r="K77" t="n">
-        <v>0.084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3796,28 +3796,28 @@
         <v>112</v>
       </c>
       <c r="D78" t="n">
-        <v>2486.3</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>25658.2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>3478.9</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1.293</v>
+        <v>0.99</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>14.254</v>
+        <v>18.195</v>
       </c>
       <c r="K78" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3831,28 +3831,28 @@
         <v>113</v>
       </c>
       <c r="D79" t="n">
-        <v>5018.6</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>54517.2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>7109.1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.768</v>
+        <v>2.355</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>22.419</v>
+        <v>30.931</v>
       </c>
       <c r="K79" t="n">
-        <v>5.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3866,28 +3866,28 @@
         <v>115</v>
       </c>
       <c r="D80" t="n">
-        <v>203.7</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>109821.1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>92071.9</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>90.617</v>
+        <v>99.051</v>
       </c>
       <c r="K80" t="n">
-        <v>74.376</v>
+        <v>59.277</v>
       </c>
     </row>
     <row r="81">
@@ -3901,28 +3901,28 @@
         <v>116</v>
       </c>
       <c r="D81" t="n">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>48738.6</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>153724.3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.463</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>35.72</v>
+        <v>31.026</v>
       </c>
       <c r="K81" t="n">
-        <v>140.878</v>
+        <v>138.459</v>
       </c>
     </row>
     <row r="82">
@@ -3936,28 +3936,28 @@
         <v>117</v>
       </c>
       <c r="D82" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>422.4</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>9380</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>212864.4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.404</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>10.534</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>156.607</v>
+        <v>164.125</v>
       </c>
     </row>
     <row r="83">
@@ -3971,28 +3971,28 @@
         <v>118</v>
       </c>
       <c r="D83" t="n">
-        <v>44.3</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>66216.1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>79302.8</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>56.223</v>
+        <v>62.036</v>
       </c>
       <c r="K83" t="n">
-        <v>69.827</v>
+        <v>66.726</v>
       </c>
     </row>
     <row r="84">
@@ -4006,28 +4006,28 @@
         <v>119</v>
       </c>
       <c r="D84" t="n">
-        <v>1514.2</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>112132.1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>600.2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.713</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>66.559</v>
+        <v>67.812</v>
       </c>
       <c r="K84" t="n">
-        <v>0.586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4044,25 +4044,25 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>138988</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.617</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>69.24</v>
+        <v>89.968</v>
       </c>
     </row>
     <row r="86">
@@ -4076,28 +4076,28 @@
         <v>121</v>
       </c>
       <c r="D86" t="n">
-        <v>278.1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>687.6</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>10465.4</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>30157.2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.356</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>10.973</v>
+        <v>15.446</v>
       </c>
       <c r="K86" t="n">
-        <v>24.914</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="87">
@@ -4111,28 +4111,28 @@
         <v>122</v>
       </c>
       <c r="D87" t="n">
-        <v>4149.3</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>184817</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>66395.7</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1.203</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>78.037</v>
+        <v>93.322</v>
       </c>
       <c r="K87" t="n">
-        <v>32.749</v>
+        <v>22.991</v>
       </c>
     </row>
     <row r="88">
@@ -4146,28 +4146,28 @@
         <v>123</v>
       </c>
       <c r="D88" t="n">
-        <v>44535.8</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>164193.1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>7012</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>17.765</v>
+        <v>16.658</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>62.844</v>
+        <v>67.042</v>
       </c>
       <c r="K88" t="n">
-        <v>3.058</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="89">
@@ -4181,28 +4181,28 @@
         <v>124</v>
       </c>
       <c r="D89" t="n">
-        <v>372.5</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>58489.9</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>107788</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.258</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>74.093</v>
+        <v>80.507</v>
       </c>
       <c r="K89" t="n">
-        <v>90.805</v>
+        <v>106.555</v>
       </c>
     </row>
     <row r="90">
@@ -4216,28 +4216,28 @@
         <v>125</v>
       </c>
       <c r="D90" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>25432.4</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>177825.1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>17.121</v>
+        <v>14.988</v>
       </c>
       <c r="K90" t="n">
-        <v>139.551</v>
+        <v>159.537</v>
       </c>
     </row>
     <row r="91">
@@ -4251,28 +4251,28 @@
         <v>126</v>
       </c>
       <c r="D91" t="n">
-        <v>113.7</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>62820.9</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>116002.1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>44.859</v>
+        <v>51.626</v>
       </c>
       <c r="K91" t="n">
-        <v>66.095</v>
+        <v>67.123</v>
       </c>
     </row>
     <row r="92">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>44019.8</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>218646</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>28.596</v>
+        <v>27.966</v>
       </c>
       <c r="K92" t="n">
-        <v>148.344</v>
+        <v>157.395</v>
       </c>
     </row>
     <row r="93">
@@ -4327,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>922.4</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>16771.8</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>5229.3</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>840.2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>8492.8</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4601,28 +4601,28 @@
         <v>137</v>
       </c>
       <c r="D101" t="n">
-        <v>200.1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2416.8</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>28418.6</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.472</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>13.767</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="102">
@@ -4636,25 +4636,25 @@
         <v>139</v>
       </c>
       <c r="D102" t="n">
-        <v>177157.1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2629</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>98.241</v>
+        <v>102.421</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>5.444</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4671,25 +4671,25 @@
         <v>140</v>
       </c>
       <c r="D103" t="n">
-        <v>131035.4</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>17569.7</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>39.448</v>
+        <v>47.344</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>4.593</v>
+        <v>2.714</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4706,25 +4706,25 @@
         <v>141</v>
       </c>
       <c r="D104" t="n">
-        <v>200669.8</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>9851.6</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>23.223</v>
+        <v>26.756</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>142</v>
       </c>
       <c r="D105" t="n">
-        <v>200701.7</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1173.3</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>116.83</v>
+        <v>113.568</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4776,25 +4776,25 @@
         <v>143</v>
       </c>
       <c r="D106" t="n">
-        <v>93968.7</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>24066.5</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>81.163</v>
+        <v>86.091</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>27.885</v>
+        <v>12.561</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4811,25 +4811,25 @@
         <v>144</v>
       </c>
       <c r="D107" t="n">
-        <v>182888.9</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>4779.2</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>17.593</v>
+        <v>18.626</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4846,25 +4846,25 @@
         <v>145</v>
       </c>
       <c r="D108" t="n">
-        <v>259720.9</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>16023.9</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>20.724</v>
+        <v>23.999</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.524</v>
+        <v>0.221</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4881,28 +4881,28 @@
         <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>299446.1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>5734.6</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>105.679</v>
+        <v>118.915</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>5.278</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4916,28 +4916,28 @@
         <v>147</v>
       </c>
       <c r="D110" t="n">
-        <v>102167.8</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>185539.9</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>263.6</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>15.255</v>
+        <v>25.271</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>31.292</v>
+        <v>35.002</v>
       </c>
       <c r="K110" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4951,25 +4951,25 @@
         <v>149</v>
       </c>
       <c r="D111" t="n">
-        <v>172348.1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>16756</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>19.662</v>
+        <v>26.644</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.021</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -4986,25 +4986,25 @@
         <v>150</v>
       </c>
       <c r="D112" t="n">
-        <v>286286</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>62660.2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>18.41</v>
+        <v>24.455</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.572</v>
+        <v>3.046</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5021,25 +5021,25 @@
         <v>151</v>
       </c>
       <c r="D113" t="n">
-        <v>454993.7</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>31730.3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>27.44</v>
+        <v>36.047</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.194</v>
+        <v>0.77</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -5056,25 +5056,25 @@
         <v>152</v>
       </c>
       <c r="D114" t="n">
-        <v>431637.6</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>17318.2</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>121.2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>227.97</v>
+        <v>235.818</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>6.123</v>
+        <v>0.798</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -5091,25 +5091,25 @@
         <v>154</v>
       </c>
       <c r="D115" t="n">
-        <v>2074.8</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>164430.6</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>51.1</v>
+        <v>54.112</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -5126,25 +5126,25 @@
         <v>155</v>
       </c>
       <c r="D116" t="n">
-        <v>113415.9</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>76768.8</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>30.292</v>
+        <v>29.698</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>37.274</v>
+        <v>40.58</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -5161,28 +5161,28 @@
         <v>156</v>
       </c>
       <c r="D117" t="n">
-        <v>97904.7</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>30465</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>26.109</v>
+        <v>29.646</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>7.709</v>
+        <v>5.296</v>
       </c>
       <c r="K117" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5196,25 +5196,25 @@
         <v>157</v>
       </c>
       <c r="D118" t="n">
-        <v>80634.2</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>47783.1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>18.028</v>
+        <v>19.157</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>16.471</v>
+        <v>18.229</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>158</v>
       </c>
       <c r="D119" t="n">
-        <v>25109.1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>78072.5</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>3.365</v>
+        <v>4.016</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>14.666</v>
+        <v>14.685</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5266,25 +5266,25 @@
         <v>159</v>
       </c>
       <c r="D120" t="n">
-        <v>41077.9</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>24019.9</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>6.38</v>
+        <v>8.09</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>5.55</v>
+        <v>5.761</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5301,25 +5301,25 @@
         <v>160</v>
       </c>
       <c r="D121" t="n">
-        <v>14710.1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>48061.1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>2.184</v>
+        <v>1.904</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>8.987</v>
+        <v>7.622</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5336,25 +5336,25 @@
         <v>161</v>
       </c>
       <c r="D122" t="n">
-        <v>108742</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>78871.2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>23.259</v>
+        <v>22.666</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>17.455</v>
+        <v>20.858</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5371,25 +5371,25 @@
         <v>153</v>
       </c>
       <c r="D123" t="n">
-        <v>14286.4</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>68015.7</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>643.1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>18.433</v>
+        <v>8.011</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>66.028</v>
+        <v>66.511</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5406,25 +5406,25 @@
         <v>162</v>
       </c>
       <c r="D124" t="n">
-        <v>58102.1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>49266.9</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>11.654</v>
+        <v>13.343</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>10.717</v>
+        <v>9.821</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -5441,25 +5441,25 @@
         <v>163</v>
       </c>
       <c r="D125" t="n">
-        <v>68686.4</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>44173.6</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>13.122</v>
+        <v>17.495</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>10.227</v>
+        <v>9.347</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5476,25 +5476,25 @@
         <v>164</v>
       </c>
       <c r="D126" t="n">
-        <v>45017.9</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>6341.5</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>21.246</v>
+        <v>23.612</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.758</v>
+        <v>0.958</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5511,28 +5511,28 @@
         <v>165</v>
       </c>
       <c r="D127" t="n">
-        <v>15536</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>80745.7</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>4.584</v>
+        <v>5.576</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>12.8</v>
+        <v>13.95</v>
       </c>
       <c r="K127" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5546,25 +5546,25 @@
         <v>166</v>
       </c>
       <c r="D128" t="n">
-        <v>111997.9</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>5109</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>13.424</v>
+        <v>17.895</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5581,28 +5581,28 @@
         <v>168</v>
       </c>
       <c r="D129" t="n">
-        <v>313353.9</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>178655.8</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>112335.6</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>63.684</v>
+        <v>85.638</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>32.446</v>
+        <v>48.235</v>
       </c>
       <c r="K129" t="n">
-        <v>13.554</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="130">
@@ -5616,25 +5616,25 @@
         <v>169</v>
       </c>
       <c r="D130" t="n">
-        <v>44490.6</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>5969.2</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>36.141</v>
+        <v>40.126</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>5.06</v>
+        <v>4.026</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -5651,28 +5651,28 @@
         <v>170</v>
       </c>
       <c r="D131" t="n">
-        <v>7077.4</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>93070.7</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>24829.5</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>2.961</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>27.422</v>
+        <v>30.872</v>
       </c>
       <c r="K131" t="n">
-        <v>6.284</v>
+        <v>3.807</v>
       </c>
     </row>
     <row r="132">
@@ -5686,28 +5686,28 @@
         <v>171</v>
       </c>
       <c r="D132" t="n">
-        <v>32319.2</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>19758.3</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>530.6</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>27.856</v>
+        <v>32.992</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>10.291</v>
+        <v>12.096</v>
       </c>
       <c r="K132" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5721,25 +5721,25 @@
         <v>172</v>
       </c>
       <c r="D133" t="n">
-        <v>53897</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>13044.2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>75.351</v>
+        <v>71.274</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>6.18</v>
+        <v>7.785</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5756,28 +5756,28 @@
         <v>173</v>
       </c>
       <c r="D134" t="n">
-        <v>47491.9</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>207629</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>15365.4</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>7.117</v>
+        <v>4.091</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>20.77</v>
+        <v>25.732</v>
       </c>
       <c r="K134" t="n">
-        <v>1.567</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="135">
@@ -5791,28 +5791,28 @@
         <v>174</v>
       </c>
       <c r="D135" t="n">
-        <v>88072.7</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>281863.2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>18102</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>2.928</v>
+        <v>6.579</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>7.005</v>
+        <v>15.031</v>
       </c>
       <c r="K135" t="n">
-        <v>0.249</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="136">
@@ -5826,28 +5826,28 @@
         <v>175</v>
       </c>
       <c r="D136" t="n">
-        <v>69666.5</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>233921.3</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>91515.4</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>12.033</v>
+        <v>21.2</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>29.998</v>
+        <v>60.527</v>
       </c>
       <c r="K136" t="n">
-        <v>6.301</v>
+        <v>5.739</v>
       </c>
     </row>
     <row r="137">
@@ -5861,28 +5861,28 @@
         <v>167</v>
       </c>
       <c r="D137" t="n">
-        <v>264493.4</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>159125.5</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>27958.1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>201.209</v>
+        <v>341.747</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>72.73</v>
+        <v>88.002</v>
       </c>
       <c r="K137" t="n">
-        <v>10.461</v>
+        <v>7.542</v>
       </c>
     </row>
     <row r="138">
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>31691.2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>122260</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5914,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>13.421</v>
+        <v>19.443</v>
       </c>
       <c r="K138" t="n">
-        <v>44.86</v>
+        <v>50.409</v>
       </c>
     </row>
     <row r="139">
@@ -5937,10 +5937,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>8433.8</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>145868.4</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5949,10 +5949,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>3.29</v>
+        <v>0.58</v>
       </c>
       <c r="K139" t="n">
-        <v>49.349</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="140">
@@ -5972,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>157321.9</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>67.896</v>
+        <v>93.994</v>
       </c>
     </row>
     <row r="141">
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>133002</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>15.603</v>
+        <v>34.015</v>
       </c>
     </row>
     <row r="142">
@@ -6042,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>2626.9</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>246755.8</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6054,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>26.12</v>
+        <v>34.363</v>
       </c>
     </row>
     <row r="143">
@@ -6071,25 +6071,25 @@
         <v>182</v>
       </c>
       <c r="D143" t="n">
-        <v>66156.6</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>107.8</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>27.577</v>
+        <v>28.267</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6106,28 +6106,28 @@
         <v>183</v>
       </c>
       <c r="D144" t="n">
-        <v>40036.3</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>34713.5</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>2943.1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>12400.2</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>4.13</v>
+        <v>8.058</v>
       </c>
       <c r="I144" t="n">
-        <v>3.149</v>
+        <v>3.201</v>
       </c>
       <c r="J144" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>1.113</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="145">
@@ -6141,28 +6141,28 @@
         <v>184</v>
       </c>
       <c r="D145" t="n">
-        <v>97721.2</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>6838.4</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>4476.1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1725.9</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>15.395</v>
+        <v>20.097</v>
       </c>
       <c r="I145" t="n">
-        <v>0.846</v>
+        <v>0.299</v>
       </c>
       <c r="J145" t="n">
-        <v>0.777</v>
+        <v>0.809</v>
       </c>
       <c r="K145" t="n">
-        <v>0.181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6176,28 +6176,28 @@
         <v>185</v>
       </c>
       <c r="D146" t="n">
-        <v>59350.4</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>408.1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>31.103</v>
+        <v>31.863</v>
       </c>
       <c r="I146" t="n">
-        <v>0.258</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6211,25 +6211,25 @@
         <v>186</v>
       </c>
       <c r="D147" t="n">
-        <v>50351.5</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1083.7</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>20.645</v>
+        <v>23.546</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.689</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -6246,28 +6246,28 @@
         <v>187</v>
       </c>
       <c r="D148" t="n">
-        <v>132778.4</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>4224.9</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>27112.3</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>459.9</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>24.484</v>
+        <v>31.426</v>
       </c>
       <c r="I148" t="n">
-        <v>0.905</v>
+        <v>0.442</v>
       </c>
       <c r="J148" t="n">
-        <v>8.943</v>
+        <v>4.639</v>
       </c>
       <c r="K148" t="n">
-        <v>0.349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6281,28 +6281,28 @@
         <v>188</v>
       </c>
       <c r="D149" t="n">
-        <v>137178</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>193.1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>43791.7</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>244.7</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>39.602</v>
+        <v>44.662</v>
       </c>
       <c r="I149" t="n">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>20.634</v>
+        <v>14.176</v>
       </c>
       <c r="K149" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6316,25 +6316,25 @@
         <v>189</v>
       </c>
       <c r="D150" t="n">
-        <v>63331.6</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>33388.3</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>16.046</v>
+        <v>19.492</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>7.043</v>
+        <v>7.873</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>190</v>
       </c>
       <c r="D151" t="n">
-        <v>31094.9</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>9926</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>18.564</v>
+        <v>17.284</v>
       </c>
       <c r="I151" t="n">
-        <v>3.259</v>
+        <v>0.922</v>
       </c>
       <c r="J151" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6386,25 +6386,25 @@
         <v>191</v>
       </c>
       <c r="D152" t="n">
-        <v>69206.1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>4474.2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>124.5</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>43.525</v>
+        <v>52.119</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>3.165</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>192</v>
       </c>
       <c r="D153" t="n">
-        <v>67884.7</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>19.143</v>
+        <v>17.911</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -6456,25 +6456,25 @@
         <v>193</v>
       </c>
       <c r="D154" t="n">
-        <v>115035.5</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>7601.5</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>64.552</v>
+        <v>69.366</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>2.636</v>
+        <v>1.24</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -6491,25 +6491,25 @@
         <v>194</v>
       </c>
       <c r="D155" t="n">
-        <v>54139.1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>261.6</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1458.9</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>15.863</v>
+        <v>19.565</v>
       </c>
       <c r="I155" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.284</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -6526,25 +6526,25 @@
         <v>195</v>
       </c>
       <c r="D156" t="n">
-        <v>69858.3</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>400.3</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>31.357</v>
+        <v>34.002</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6561,28 +6561,28 @@
         <v>196</v>
       </c>
       <c r="D157" t="n">
-        <v>88385.8</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>14451.2</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>188.7</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>276.3</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>29.434</v>
+        <v>29.258</v>
       </c>
       <c r="I157" t="n">
-        <v>3.71</v>
+        <v>3.227</v>
       </c>
       <c r="J157" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6596,25 +6596,25 @@
         <v>181</v>
       </c>
       <c r="D158" t="n">
-        <v>42229</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>309.1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>545.4</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1291.8</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>54.431</v>
+        <v>37.945</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6631,25 +6631,25 @@
         <v>198</v>
       </c>
       <c r="D159" t="n">
-        <v>72616.6</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>52.4</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1864.7</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>71.153</v>
+        <v>75.581</v>
       </c>
       <c r="I159" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.749</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6666,25 +6666,25 @@
         <v>199</v>
       </c>
       <c r="D160" t="n">
-        <v>72650.4</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>18404.4</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>101.304</v>
+        <v>136.876</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>27.769</v>
+        <v>8.651</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -6701,28 +6701,28 @@
         <v>200</v>
       </c>
       <c r="D161" t="n">
-        <v>12332.4</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1234.9</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>29224.1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>130467.1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.513</v>
+        <v>1.582</v>
       </c>
       <c r="I161" t="n">
-        <v>0.643</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>3.268</v>
+        <v>3.008</v>
       </c>
       <c r="K161" t="n">
-        <v>27.201</v>
+        <v>29.761</v>
       </c>
     </row>
     <row r="162">
@@ -6736,28 +6736,28 @@
         <v>201</v>
       </c>
       <c r="D162" t="n">
-        <v>33162.5</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>50567</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>18113.5</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>6.895</v>
+        <v>5.058</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>12.235</v>
+        <v>16.834</v>
       </c>
       <c r="K162" t="n">
-        <v>5.193</v>
+        <v>6.907</v>
       </c>
     </row>
     <row r="163">
@@ -6771,28 +6771,28 @@
         <v>202</v>
       </c>
       <c r="D163" t="n">
-        <v>7252.2</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>585.5</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>53442.6</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>45398.2</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1.984</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>32.043</v>
+        <v>41.755</v>
       </c>
       <c r="K163" t="n">
-        <v>18.127</v>
+        <v>14.492</v>
       </c>
     </row>
     <row r="164">
@@ -6806,28 +6806,28 @@
         <v>203</v>
       </c>
       <c r="D164" t="n">
-        <v>30396</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>181.4</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>66351.9</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>62509.3</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.388</v>
+        <v>6.975</v>
       </c>
       <c r="I164" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>17.72</v>
+        <v>20.616</v>
       </c>
       <c r="K164" t="n">
-        <v>18.168</v>
+        <v>18.831</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_angola.xlsx
+++ b/public/data/soil/soil_table_angola.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3862.1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5962.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25924.4</v>
       </c>
       <c r="H3" t="n">
         <v>0.544</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13465.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>17222.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>18636.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10683.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1276,16 +1276,16 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8149.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5727.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>719.4</v>
       </c>
       <c r="H6" t="n">
         <v>15.275</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1718.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1346,13 +1346,13 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>355.9</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>18991.8</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10696.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3067.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>46503</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5004.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>59542</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>17245.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>17114.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>18126.8</v>
       </c>
       <c r="H12" t="n">
         <v>0.906</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82955.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>88790</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>62488.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38581.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25151.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15360.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>14526.8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>42840.9</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8161.3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>43473.9</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3025.9</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>85213.3</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7731.6</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94440.2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>87899.6</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>47822.3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8539.2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>488.9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9758.9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>48174.4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>15209.1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>62872.2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>14880.7</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>28723.7</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>8236.7</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>57</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>19526.7</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>50295.2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>18055.3</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>23409.8</v>
       </c>
       <c r="H27" t="n">
         <v>41.13</v>
@@ -2046,16 +2046,16 @@
         <v>58</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12036.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6509.8</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2736.9</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6496.2</v>
       </c>
       <c r="H28" t="n">
         <v>11.759</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>21359.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>23566.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6529.5</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>19228.9</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5047.4</v>
       </c>
       <c r="H31" t="n">
         <v>5.923</v>
@@ -2186,16 +2186,16 @@
         <v>63</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>10212.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1266.2</v>
       </c>
       <c r="H32" t="n">
         <v>1.243</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15154.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1513.6</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>9048.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2291,16 +2291,16 @@
         <v>66</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3964</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>41641.4</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27064.3</v>
       </c>
       <c r="H35" t="n">
         <v>14.773</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1148.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>8248.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>20752.7</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>71</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>17659.9</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3634.4</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2466,13 +2466,13 @@
         <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>28695.5</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3092.9</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7631.9</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3056.5</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>170814.3</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6087.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>140554.3</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>76</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2164.1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>4054.1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>52392.2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>78</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3359.7</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>30956.1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>79</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3854.9</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>24334.1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>18552.8</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>81</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>10828.9</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>82</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>19470.7</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>11164.5</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>27875.4</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>14411.8</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>14321.7</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>19287.4</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>22542.6</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         <v>89</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>674.1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2921.3</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2446.2</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>6603.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3096,13 +3096,13 @@
         <v>91</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>7908.3</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3137,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>24557</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>922.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>11801.1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4211.7</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>12676.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>13995.1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>62759.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>179927.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>19598.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3382,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>7480.6</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>42158.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>100780</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>180924.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1009.1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>30904.8</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>43799.3</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>4033.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>106</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>5955.3</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>26500.9</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>14917.9</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2013.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>37629.7</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>3265.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>536.1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>13015.4</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>23776</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>4877</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3726,13 +3726,13 @@
         <v>110</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>305.7</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>12329.9</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3761,13 +3761,13 @@
         <v>111</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1340.6</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>22998.3</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>112</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>617.9</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>5418.6</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>113</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>617.9</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>7027.9</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>21127.7</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>31219.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>19389.5</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>80931.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>123657.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>10455.8</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>30945.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>4153.3</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>16126.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>8311.6</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>20995.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>7001.8</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>5775.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>123</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2602.9</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>4029.6</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>402.1</v>
       </c>
       <c r="H88" t="n">
         <v>16.658</v>
@@ -4187,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>38655.6</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>119498.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4222,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>4134.6</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>72959.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>21480.1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>32549.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>11432.1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>65826.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>4037.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>116.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>5290.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>139</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>26425.2</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4671,13 +4671,13 @@
         <v>140</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>4636.2</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>2153</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>141</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>3367.3</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>142</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>15217.7</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4776,13 +4776,13 @@
         <v>143</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>14538.8</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>12094.7</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>144</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>4087</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>145</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>7276.4</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>16928.3</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>147</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>13562.5</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>22494.4</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -4951,13 +4951,13 @@
         <v>149</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>4100.8</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4986,13 +4986,13 @@
         <v>150</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>16111.9</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2258.7</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -5021,13 +5021,13 @@
         <v>151</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>41594.2</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1121.9</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -5056,13 +5056,13 @@
         <v>152</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>62476.8</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1393.5</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>56803.4</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -5126,13 +5126,13 @@
         <v>155</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>8504.5</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>31132.9</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>156</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>3351.8</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>4321.9</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -5196,13 +5196,13 @@
         <v>157</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1327.2</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>4436.5</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -5231,13 +5231,13 @@
         <v>158</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>3120.2</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>27871.9</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5266,13 +5266,13 @@
         <v>159</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>5898.9</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>6108.6</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -5301,13 +5301,13 @@
         <v>160</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>2800.5</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>21953.9</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5336,13 +5336,13 @@
         <v>161</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>4860.5</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>6596.5</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5371,13 +5371,13 @@
         <v>153</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1958.9</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>24241.7</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5406,13 +5406,13 @@
         <v>162</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>20983.6</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>16534.9</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -5441,13 +5441,13 @@
         <v>163</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>32048.1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>19090.5</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -5476,13 +5476,13 @@
         <v>164</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>5256</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>2588.4</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5511,13 +5511,13 @@
         <v>165</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>3020.4</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>29050.3</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5546,13 +5546,13 @@
         <v>166</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1267.2</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>126.8</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -5581,16 +5581,16 @@
         <v>168</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>7020.7</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>11748.9</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>5087.5</v>
       </c>
       <c r="H129" t="n">
         <v>85.638</v>
@@ -5616,13 +5616,13 @@
         <v>169</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>4956.8</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>438.5</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -5651,16 +5651,16 @@
         <v>170</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>937.2</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>4186.5</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5686,13 +5686,13 @@
         <v>171</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>3672.4</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1264.3</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -5721,13 +5721,13 @@
         <v>172</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>8614.9</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>105.7</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -5756,16 +5756,16 @@
         <v>173</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>279.6</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>2639.7</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>182.7</v>
       </c>
       <c r="H134" t="n">
         <v>4.091</v>
@@ -5791,16 +5791,16 @@
         <v>174</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>8486.4</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>45285.6</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>401.6</v>
       </c>
       <c r="H135" t="n">
         <v>6.579</v>
@@ -5826,16 +5826,16 @@
         <v>175</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2856</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>39152.7</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>4952.6</v>
       </c>
       <c r="H136" t="n">
         <v>21.2</v>
@@ -5861,16 +5861,16 @@
         <v>167</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>18770.5</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>11324.2</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="H137" t="n">
         <v>341.747</v>
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>16826</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>23628</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>23161.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>967.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>411.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>11016.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>182</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>2785.3</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -6106,16 +6106,16 @@
         <v>183</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>24685.5</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>8431.8</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>3115.8</v>
       </c>
       <c r="H144" t="n">
         <v>8.058</v>
@@ -6141,16 +6141,16 @@
         <v>184</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>30184.7</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2345.9</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>2323.5</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="H145" t="n">
         <v>20.097</v>
@@ -6176,7 +6176,7 @@
         <v>185</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>31872</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>186</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1788.3</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>187</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>28767</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>726.5</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>3449.6</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>188</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>60863.5</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>9616.9</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6316,13 +6316,13 @@
         <v>189</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>26318</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>12276.9</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -6351,10 +6351,10 @@
         <v>190</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>11376.9</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>3230.9</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>191</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>8433.9</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>192</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>161.6</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -6456,13 +6456,13 @@
         <v>193</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>56908.5</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1887.4</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>194</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>37385.8</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>195</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>22683.2</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6561,10 +6561,10 @@
         <v>196</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>27065.5</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2504.3</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>181</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>33667.4</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>198</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>17045.6</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -6666,13 +6666,13 @@
         <v>199</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>15224.5</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>4564.2</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -6701,16 +6701,16 @@
         <v>200</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>2920</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2551.6</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>3348.6</v>
       </c>
       <c r="H161" t="n">
         <v>1.582</v>
@@ -6736,16 +6736,16 @@
         <v>201</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1451.6</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>8826.5</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1649.4</v>
       </c>
       <c r="H162" t="n">
         <v>5.058</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>2512.3</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>6980.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6806,16 +6806,16 @@
         <v>203</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1602.5</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>2905.7</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>718.8</v>
       </c>
       <c r="H164" t="n">
         <v>6.975</v>
